--- a/Resources/Drugs Megastore Tables.xlsx
+++ b/Resources/Drugs Megastore Tables.xlsx
@@ -1,24 +1,171 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19024"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Universidad\SEGUNDO\2o Cuatri\Bases de Datos\Proyect\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drug" sheetId="1" r:id="rId1"/>
+    <sheet name="Provider" sheetId="2" r:id="rId2"/>
+    <sheet name="Delivered" sheetId="7" r:id="rId3"/>
+    <sheet name="Client" sheetId="3" r:id="rId4"/>
+    <sheet name="Corridor" sheetId="4" r:id="rId5"/>
+    <sheet name="Warehouse" sheetId="5" r:id="rId6"/>
+    <sheet name="Employee" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171026"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Dates of expiry</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>Selling price</t>
+  </si>
+  <si>
+    <t>Buying Price</t>
+  </si>
+  <si>
+    <t>Active Principle</t>
+  </si>
+  <si>
+    <t>Provider ID</t>
+  </si>
+  <si>
+    <t>Recived</t>
+  </si>
+  <si>
+    <t>Corridor ID</t>
+  </si>
+  <si>
+    <t>Aspirin</t>
+  </si>
+  <si>
+    <t>monkey....</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Adress</t>
+  </si>
+  <si>
+    <t>Telephone number</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Bayer</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>56789@bayer.com</t>
+  </si>
+  <si>
+    <t>Id Client</t>
+  </si>
+  <si>
+    <t>Id Drugs</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
+  </si>
+  <si>
+    <t>H. La Paz</t>
+  </si>
+  <si>
+    <t>avndda</t>
+  </si>
+  <si>
+    <t>@.com</t>
+  </si>
+  <si>
+    <t>paypal</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Warehouse ID</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>España</t>
+  </si>
+  <si>
+    <t>Avnd asd</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>PACO</t>
+  </si>
+  <si>
+    <t>Currito</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -32,7 +179,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -40,17 +187,859 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="57">
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -63,8 +1052,109 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B2DFD6E-60C5-48F8-8D89-D19EBE01E13C}" name="Tabla36" displayName="Tabla36" ref="B2:K15" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
+  <autoFilter ref="B2:K15" xr:uid="{5C87BF82-DB40-426E-8882-D774B4BAF1A5}"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{27BACEFE-7F3D-4E6F-9B4C-DDA5AED2998D}" name="ID" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{0360C45F-93D1-4830-BE33-72172120C2A3}" name="Name" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{A9A3C222-9862-4C40-AD58-2B4E516297D3}" name="Dates of expiry" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{02530F91-ADF0-4BB1-A920-842C3C26641F}" name="Stock" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{E0C5B879-094C-4FCC-ACF9-9EB6E1119E44}" name="Selling price" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{CD4C7D84-DE00-4123-AF02-19BC3E621DBE}" name="Buying Price" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{58C7AB86-16E7-4C4B-BC52-3D86D564D280}" name="Active Principle" dataDxfId="47"/>
+    <tableColumn id="12" xr3:uid="{64F17BCC-B6FD-44B4-89D1-86CB8A4B8AAF}" name="Provider ID" dataDxfId="46"/>
+    <tableColumn id="13" xr3:uid="{51F5A3DE-2FB1-4EEF-8A17-6269E1244FB2}" name="Recived" dataDxfId="45"/>
+    <tableColumn id="4" xr3:uid="{F7B6FB8C-3B7A-4D45-85E2-C1F58E1DBC55}" name="Corridor ID" dataDxfId="44"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{467B0052-FEAC-47DA-9368-B129DBF1FE71}" name="Tabla3" displayName="Tabla3" ref="B3:F16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+  <autoFilter ref="B3:F16" xr:uid="{78C36D84-A7D2-4DAF-8D85-C264F7324D5E}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{EDF4B571-D901-4B17-8D67-59A504E8B212}" name="Id" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{945EE15A-3642-4171-ACBD-DD9F69CE5E87}" name="Name" dataDxfId="39"/>
+    <tableColumn id="3" xr3:uid="{BA844067-E196-4BD7-A628-37C3953CBEAC}" name="Adress" dataDxfId="38"/>
+    <tableColumn id="5" xr3:uid="{A0EB1753-6206-4F4A-812D-7CD1CB147AB3}" name="Telephone number" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{B8264905-268A-45D7-B17C-B1FEEE9917DE}" name="Email" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD9A20E6-D29C-4081-B6F1-C55BCA30CDFB}" name="Tabla278" displayName="Tabla278" ref="B2:D15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
+  <autoFilter ref="B2:D15" xr:uid="{EE5E9A34-401A-4193-9EA3-75DD0393470F}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{A417CCF1-3118-404D-A860-261ED7F8A093}" name="Id Client" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{B820EFDD-947D-4AD1-B56A-F161FCBE2846}" name="Id Drugs" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{DA395AE8-DAAC-41CB-9F2D-F3D8ED353386}" name="Delivered" dataDxfId="30"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A37C67D0-1D80-40B0-9318-F6070E3BB206}" name="Tabla2" displayName="Tabla2" ref="B3:G16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+  <autoFilter ref="B3:G16" xr:uid="{288C5025-E0E8-4D92-8172-59AEB56CF03E}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{8200E7C0-05A5-4DB9-8A6A-BDDC3675F78F}" name="Id" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{D46EB23F-1D07-48A8-B256-656043900CFE}" name="Name" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{459B6353-0DBF-44AB-A916-DFD4ABAC7C13}" name="Adress" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{1D595A27-CD4A-48C3-97B3-413EC27F5C5F}" name="Telephone number" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{029EE511-9BF9-4406-880C-175D3D0E4CF9}" name="Email" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{513A0E3A-CF21-43A2-8534-A59449E1A836}" name="Payment Method" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8F56F9E-C0E8-4224-83E9-2D28B070C9EF}" name="Tabla27" displayName="Tabla27" ref="B2:D15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+  <autoFilter ref="B2:D15" xr:uid="{7A92AC95-FFA1-4753-B724-007F411885B6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5B925D6B-C412-402D-9BC6-32ED80CBBA86}" name="Id" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{63DF4FFA-FE22-43A3-8CF0-34FD9B5D3F11}" name="Temperature" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00816EB6-9B49-40CF-9344-6C4B685C8C20}" name="Warehouse ID" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{36FA78E7-1649-4742-857C-EF567FB1D5F4}" name="Tabla4" displayName="Tabla4" ref="B3:F11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B3:F11" xr:uid="{DFCBEBE0-40F9-4314-8736-F0580389834C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C672E38D-A578-4115-B20A-74C02FFCB199}" name="Id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EAE6E262-1803-4172-B7E8-CA3E4B121302}" name="Phone" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{7D12313F-F765-4282-9572-F62C04545B12}" name="Country" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{88FD9397-9D8E-4568-B5A3-446E01FC655B}" name="Address" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{A5DBE6C8-40D4-4064-A4AF-6DD3C22944C3}" name="PC" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73170AD4-02E3-438B-8C2B-18DFB91C85AF}" name="Tabla1" displayName="Tabla1" ref="B3:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="B3:G12" xr:uid="{1802D902-C4DE-49BB-893E-01BAC3EE72EC}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{50DFE7F1-8CF7-465B-B088-B58DEB5CFEB7}" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{AC597AA2-369C-4EAA-8955-ABA24EFDA651}" name="Name" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{8901B0C4-FF2F-4285-A444-FC8FA662FC98}" name="Salary" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{843E85C9-EAF3-4BAB-A8E1-603305A7CB04}" name="Phone" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{34E5A039-96D5-474B-9359-206398EB8ECE}" name="Position" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{058C6553-198D-4DA0-9C09-776067C7B6C7}" name="Warehouse ID" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -360,12 +1450,1303 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12">
+        <v>43132</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13">
+        <v>10</v>
+      </c>
+      <c r="G3" s="14">
+        <v>5</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="16">
+        <v>43101</v>
+      </c>
+      <c r="K3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C383EAA-BB48-40C8-968D-9FC4FA416A1B}">
+  <dimension ref="B3:F16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>888888888</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{23D3CCD8-0513-433B-AEB9-0B93B7D87F24}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D768B609-9D11-42B2-8D24-1A055BFEB2F7}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6C5E21-F3EA-47D6-9344-A3A7F13A1347}">
+  <dimension ref="A1:I22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3456789</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4D6A3C-556E-415B-BD9B-39C80BC1FBE4}">
+  <dimension ref="B2:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="10"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C75416-CFC4-4FDF-B485-72C82B863706}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1234567</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="1">
+        <v>19023</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442F4EE-3CAB-49A4-B8C2-5AB905B55007}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="15">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3456</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Resources/Drugs Megastore Tables.xlsx
+++ b/Resources/Drugs Megastore Tables.xlsx
@@ -5,27 +5,32 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Documents\Universidad\SEGUNDO\2o Cuatri\Bases de Datos\Proyect\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laura\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Drug" sheetId="1" r:id="rId1"/>
     <sheet name="Provider" sheetId="2" r:id="rId2"/>
-    <sheet name="Delivered" sheetId="7" r:id="rId3"/>
-    <sheet name="Client" sheetId="3" r:id="rId4"/>
-    <sheet name="Corridor" sheetId="4" r:id="rId5"/>
-    <sheet name="Warehouse" sheetId="5" r:id="rId6"/>
-    <sheet name="Employee" sheetId="6" r:id="rId7"/>
+    <sheet name="Deliveries" sheetId="7" r:id="rId3"/>
+    <sheet name="Arrivals" sheetId="8" r:id="rId4"/>
+    <sheet name="Client" sheetId="3" r:id="rId5"/>
+    <sheet name="Corridor" sheetId="4" r:id="rId6"/>
+    <sheet name="Warehouse" sheetId="5" r:id="rId7"/>
+    <sheet name="Employee" sheetId="6" r:id="rId8"/>
+    <sheet name="Processed" sheetId="9" r:id="rId9"/>
+    <sheet name="Arrives" sheetId="10" r:id="rId10"/>
+    <sheet name="Packaged" sheetId="11" r:id="rId11"/>
+    <sheet name="Delivers" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171026"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -33,27 +38,12 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Dates of expiry</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
-    <t>Selling price</t>
-  </si>
-  <si>
-    <t>Buying Price</t>
-  </si>
-  <si>
     <t>Active Principle</t>
   </si>
   <si>
-    <t>Provider ID</t>
-  </si>
-  <si>
-    <t>Recived</t>
-  </si>
-  <si>
     <t>Corridor ID</t>
   </si>
   <si>
@@ -84,15 +74,6 @@
     <t>56789@bayer.com</t>
   </si>
   <si>
-    <t>Id Client</t>
-  </si>
-  <si>
-    <t>Id Drugs</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
     <t>Payment Method</t>
   </si>
   <si>
@@ -145,6 +126,33 @@
   </si>
   <si>
     <t>Currito</t>
+  </si>
+  <si>
+    <t>transaction id</t>
+  </si>
+  <si>
+    <t>selling price</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>transaction ID</t>
+  </si>
+  <si>
+    <t>buying price</t>
+  </si>
+  <si>
+    <t>provider id</t>
+  </si>
+  <si>
+    <t>drug id</t>
+  </si>
+  <si>
+    <t>client id</t>
   </si>
 </sst>
 </file>
@@ -154,7 +162,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,16 +178,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -281,12 +317,42 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -321,72 +387,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" indent="0"/>
-    </dxf>
+  <dxfs count="53">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -407,6 +429,51 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" indent="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
@@ -445,6 +512,25 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <right style="thin">
           <color indexed="64"/>
@@ -831,99 +917,6 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -1053,101 +1046,97 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B2DFD6E-60C5-48F8-8D89-D19EBE01E13C}" name="Tabla36" displayName="Tabla36" ref="B2:K15" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54">
-  <autoFilter ref="B2:K15" xr:uid="{5C87BF82-DB40-426E-8882-D774B4BAF1A5}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{27BACEFE-7F3D-4E6F-9B4C-DDA5AED2998D}" name="ID" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{0360C45F-93D1-4830-BE33-72172120C2A3}" name="Name" dataDxfId="52"/>
-    <tableColumn id="3" xr3:uid="{A9A3C222-9862-4C40-AD58-2B4E516297D3}" name="Dates of expiry" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{02530F91-ADF0-4BB1-A920-842C3C26641F}" name="Stock" dataDxfId="50"/>
-    <tableColumn id="6" xr3:uid="{E0C5B879-094C-4FCC-ACF9-9EB6E1119E44}" name="Selling price" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{CD4C7D84-DE00-4123-AF02-19BC3E621DBE}" name="Buying Price" dataDxfId="48"/>
-    <tableColumn id="8" xr3:uid="{58C7AB86-16E7-4C4B-BC52-3D86D564D280}" name="Active Principle" dataDxfId="47"/>
-    <tableColumn id="12" xr3:uid="{64F17BCC-B6FD-44B4-89D1-86CB8A4B8AAF}" name="Provider ID" dataDxfId="46"/>
-    <tableColumn id="13" xr3:uid="{51F5A3DE-2FB1-4EEF-8A17-6269E1244FB2}" name="Recived" dataDxfId="45"/>
-    <tableColumn id="4" xr3:uid="{F7B6FB8C-3B7A-4D45-85E2-C1F58E1DBC55}" name="Corridor ID" dataDxfId="44"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2B2DFD6E-60C5-48F8-8D89-D19EBE01E13C}" name="Tabla36" displayName="Tabla36" ref="B2:F15" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51" tableBorderDxfId="50">
+  <autoFilter ref="B2:F15" xr:uid="{5C87BF82-DB40-426E-8882-D774B4BAF1A5}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{27BACEFE-7F3D-4E6F-9B4C-DDA5AED2998D}" name="ID" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{0360C45F-93D1-4830-BE33-72172120C2A3}" name="Name" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{02530F91-ADF0-4BB1-A920-842C3C26641F}" name="Stock" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{58C7AB86-16E7-4C4B-BC52-3D86D564D280}" name="Active Principle" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{F7B6FB8C-3B7A-4D45-85E2-C1F58E1DBC55}" name="Corridor ID" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{467B0052-FEAC-47DA-9368-B129DBF1FE71}" name="Tabla3" displayName="Tabla3" ref="B3:F16" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42" tableBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{467B0052-FEAC-47DA-9368-B129DBF1FE71}" name="Tabla3" displayName="Tabla3" ref="B3:F16" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43" tableBorderDxfId="42">
   <autoFilter ref="B3:F16" xr:uid="{78C36D84-A7D2-4DAF-8D85-C264F7324D5E}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{EDF4B571-D901-4B17-8D67-59A504E8B212}" name="Id" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{945EE15A-3642-4171-ACBD-DD9F69CE5E87}" name="Name" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{BA844067-E196-4BD7-A628-37C3953CBEAC}" name="Adress" dataDxfId="38"/>
-    <tableColumn id="5" xr3:uid="{A0EB1753-6206-4F4A-812D-7CD1CB147AB3}" name="Telephone number" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{B8264905-268A-45D7-B17C-B1FEEE9917DE}" name="Email" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{EDF4B571-D901-4B17-8D67-59A504E8B212}" name="Id" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{945EE15A-3642-4171-ACBD-DD9F69CE5E87}" name="Name" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{BA844067-E196-4BD7-A628-37C3953CBEAC}" name="Adress" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{A0EB1753-6206-4F4A-812D-7CD1CB147AB3}" name="Telephone number" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{B8264905-268A-45D7-B17C-B1FEEE9917DE}" name="Email" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD9A20E6-D29C-4081-B6F1-C55BCA30CDFB}" name="Tabla278" displayName="Tabla278" ref="B2:D15" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34" tableBorderDxfId="33">
-  <autoFilter ref="B2:D15" xr:uid="{EE5E9A34-401A-4193-9EA3-75DD0393470F}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A417CCF1-3118-404D-A860-261ED7F8A093}" name="Id Client" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{B820EFDD-947D-4AD1-B56A-F161FCBE2846}" name="Id Drugs" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{DA395AE8-DAAC-41CB-9F2D-F3D8ED353386}" name="Delivered" dataDxfId="30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{AD9A20E6-D29C-4081-B6F1-C55BCA30CDFB}" name="Tabla278" displayName="Tabla278" ref="B2:E15" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35" tableBorderDxfId="34">
+  <autoFilter ref="B2:E15" xr:uid="{EE5E9A34-401A-4193-9EA3-75DD0393470F}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{A417CCF1-3118-404D-A860-261ED7F8A093}" name="transaction id" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{B820EFDD-947D-4AD1-B56A-F161FCBE2846}" name="selling price" dataDxfId="32"/>
+    <tableColumn id="7" xr3:uid="{DA395AE8-DAAC-41CB-9F2D-F3D8ED353386}" name="amount" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{525F9701-EB71-4B7C-BF91-7456D7A0E113}" name="date" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A37C67D0-1D80-40B0-9318-F6070E3BB206}" name="Tabla2" displayName="Tabla2" ref="B3:G16" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28" tableBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A37C67D0-1D80-40B0-9318-F6070E3BB206}" name="Tabla2" displayName="Tabla2" ref="B3:G16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29" tableBorderDxfId="28">
   <autoFilter ref="B3:G16" xr:uid="{288C5025-E0E8-4D92-8172-59AEB56CF03E}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{8200E7C0-05A5-4DB9-8A6A-BDDC3675F78F}" name="Id" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{D46EB23F-1D07-48A8-B256-656043900CFE}" name="Name" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{459B6353-0DBF-44AB-A916-DFD4ABAC7C13}" name="Adress" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{1D595A27-CD4A-48C3-97B3-413EC27F5C5F}" name="Telephone number" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{029EE511-9BF9-4406-880C-175D3D0E4CF9}" name="Email" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{513A0E3A-CF21-43A2-8534-A59449E1A836}" name="Payment Method" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{8200E7C0-05A5-4DB9-8A6A-BDDC3675F78F}" name="Id" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{D46EB23F-1D07-48A8-B256-656043900CFE}" name="Name" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{459B6353-0DBF-44AB-A916-DFD4ABAC7C13}" name="Adress" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{1D595A27-CD4A-48C3-97B3-413EC27F5C5F}" name="Telephone number" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{029EE511-9BF9-4406-880C-175D3D0E4CF9}" name="Email" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{513A0E3A-CF21-43A2-8534-A59449E1A836}" name="Payment Method" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8F56F9E-C0E8-4224-83E9-2D28B070C9EF}" name="Tabla27" displayName="Tabla27" ref="B2:D15" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19" tableBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E8F56F9E-C0E8-4224-83E9-2D28B070C9EF}" name="Tabla27" displayName="Tabla27" ref="B2:D15" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20" tableBorderDxfId="19">
   <autoFilter ref="B2:D15" xr:uid="{7A92AC95-FFA1-4753-B724-007F411885B6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B925D6B-C412-402D-9BC6-32ED80CBBA86}" name="Id" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{63DF4FFA-FE22-43A3-8CF0-34FD9B5D3F11}" name="Temperature" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{00816EB6-9B49-40CF-9344-6C4B685C8C20}" name="Warehouse ID" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{5B925D6B-C412-402D-9BC6-32ED80CBBA86}" name="Id" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{63DF4FFA-FE22-43A3-8CF0-34FD9B5D3F11}" name="Temperature" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00816EB6-9B49-40CF-9344-6C4B685C8C20}" name="Warehouse ID" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{36FA78E7-1649-4742-857C-EF567FB1D5F4}" name="Tabla4" displayName="Tabla4" ref="B3:F11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{36FA78E7-1649-4742-857C-EF567FB1D5F4}" name="Tabla4" displayName="Tabla4" ref="B3:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B3:F11" xr:uid="{DFCBEBE0-40F9-4314-8736-F0580389834C}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{C672E38D-A578-4115-B20A-74C02FFCB199}" name="Id" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{EAE6E262-1803-4172-B7E8-CA3E4B121302}" name="Phone" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{7D12313F-F765-4282-9572-F62C04545B12}" name="Country" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{88FD9397-9D8E-4568-B5A3-446E01FC655B}" name="Address" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{A5DBE6C8-40D4-4064-A4AF-6DD3C22944C3}" name="PC" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{C672E38D-A578-4115-B20A-74C02FFCB199}" name="Id" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{EAE6E262-1803-4172-B7E8-CA3E4B121302}" name="Phone" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{7D12313F-F765-4282-9572-F62C04545B12}" name="Country" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{88FD9397-9D8E-4568-B5A3-446E01FC655B}" name="Address" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{A5DBE6C8-40D4-4064-A4AF-6DD3C22944C3}" name="PC" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73170AD4-02E3-438B-8C2B-18DFB91C85AF}" name="Tabla1" displayName="Tabla1" ref="B3:G12" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73170AD4-02E3-438B-8C2B-18DFB91C85AF}" name="Tabla1" displayName="Tabla1" ref="B3:G12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="B3:G12" xr:uid="{1802D902-C4DE-49BB-893E-01BAC3EE72EC}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{50DFE7F1-8CF7-465B-B088-B58DEB5CFEB7}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AC597AA2-369C-4EAA-8955-ABA24EFDA651}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{8901B0C4-FF2F-4285-A444-FC8FA662FC98}" name="Salary" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{843E85C9-EAF3-4BAB-A8E1-603305A7CB04}" name="Phone" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{34E5A039-96D5-474B-9359-206398EB8ECE}" name="Position" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{058C6553-198D-4DA0-9C09-776067C7B6C7}" name="Warehouse ID" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{50DFE7F1-8CF7-465B-B088-B58DEB5CFEB7}" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{AC597AA2-369C-4EAA-8955-ABA24EFDA651}" name="Name" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{8901B0C4-FF2F-4285-A444-FC8FA662FC98}" name="Salary" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{843E85C9-EAF3-4BAB-A8E1-603305A7CB04}" name="Phone" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{34E5A039-96D5-474B-9359-206398EB8ECE}" name="Position" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{058C6553-198D-4DA0-9C09-776067C7B6C7}" name="Warehouse ID" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1450,26 +1439,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K15"/>
+  <dimension ref="B2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1479,209 +1463,355 @@
       <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12">
-        <v>43132</v>
-      </c>
-      <c r="E3" s="2">
         <v>5</v>
       </c>
-      <c r="F3" s="13">
-        <v>10</v>
-      </c>
-      <c r="G3" s="14">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="H3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="10">
+      <c r="E3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="10">
         <v>1</v>
       </c>
-      <c r="J3" s="16">
-        <v>43101</v>
-      </c>
-      <c r="K3" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="F15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6175A4FF-0CA3-4DB2-BD0C-7B50CDFA7C03}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B92EE23-058A-4187-8A93-68687946957D}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41A71954-7BD2-41F1-9441-B89168DA4084}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1703,19 +1833,19 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.25">
@@ -1723,16 +1853,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2">
         <v>888888888</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.25">
@@ -1835,7 +1965,7 @@
   <dimension ref="B2:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1843,97 +1973,100 @@
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="4"/>
+        <v>35</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="4"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="4"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1944,6 +2077,118 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22EB818E-9037-4D00-964A-2CAACB2F4D41}">
+  <dimension ref="B2:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6C5E21-F3EA-47D6-9344-A3A7F13A1347}">
   <dimension ref="A1:I22"/>
   <sheetViews>
@@ -1985,22 +2230,22 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2011,19 +2256,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>3456789</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2234,7 +2479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D4D6A3C-556E-415B-BD9B-39C80BC1FBE4}">
   <dimension ref="B2:D15"/>
   <sheetViews>
@@ -2250,13 +2495,13 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.25">
@@ -2264,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D3" s="10"/>
     </row>
@@ -2336,7 +2581,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63C75416-CFC4-4FDF-B485-72C82B863706}">
   <dimension ref="A1:G17"/>
   <sheetViews>
@@ -2373,19 +2618,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G3" s="1"/>
     </row>
@@ -2398,10 +2643,10 @@
         <v>1234567</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1">
         <v>19023</v>
@@ -2533,7 +2778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B442F4EE-3CAB-49A4-B8C2-5AB905B55007}">
   <dimension ref="A1:G19"/>
   <sheetViews>
@@ -2575,16 +2820,16 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2593,19 +2838,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="15">
+        <v>30</v>
+      </c>
+      <c r="D4" s="12">
         <v>32</v>
       </c>
       <c r="E4" s="1">
         <v>3456</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2749,4 +2994,82 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9870EEA-D1E7-45EA-95BD-A7A0BA06BF19}">
+  <dimension ref="B2:C15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>